--- a/biology/Zoologie/Chorthippus_biguttulus/Chorthippus_biguttulus.xlsx
+++ b/biology/Zoologie/Chorthippus_biguttulus/Chorthippus_biguttulus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Chorthippus biguttulus, le Criquet mélodieux, est une espèce de criquets de la famille des Acrididae.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">De couleur très variable, il est fort semblable au criquet duettiste (Chorthippus brunneus), mais le bord antérieur des élytres est très renflé à la base.
 </t>
@@ -542,7 +556,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce se rencontre en Europe (sauf en Grande-Bretagne), en Asie et au Maroc.
 </t>
@@ -573,10 +589,12 @@
           <t>Biotope et stridulation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Réside en tout lieu herbu ensoleillé où il peut être abondant.
-Son chant est caractéristique: intense, rapide, métallique : dure de 1 à 1,5 seconde, s'amplifie puis cesse brusquement ; il est répété 3 à 4 fois, chaque fois moins longtemps. Ce chant permet de le distinguer facilement de Chorthippus brunneus, espèce également de couleur très variable[1].
+Son chant est caractéristique: intense, rapide, métallique : dure de 1 à 1,5 seconde, s'amplifie puis cesse brusquement ; il est répété 3 à 4 fois, chaque fois moins longtemps. Ce chant permet de le distinguer facilement de Chorthippus brunneus, espèce également de couleur très variable.
 </t>
         </is>
       </c>
@@ -605,9 +623,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon Orthoptera Species File (1er avril 2010)[2] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon Orthoptera Species File (1er avril 2010) :
 Chorthippus biguttulus biguttulus (Linnaeus, 1758)
 Chorthippus biguttulus euhedickei Helversen, 1989
 Chorthippus biguttulus eximius Mishchenko, 1951
